--- a/data/trans_bre/P24_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,82</t>
+          <t>18,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>101,76%</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>-9,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>26,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 41,32</t>
+          <t>-5,53; 38,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 21,81</t>
+          <t>-28,09; 17,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 19,95</t>
+          <t>-14,28; 22,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 15,18</t>
+          <t>-16,69; 16,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,76; 264,37</t>
+          <t>-14,14; 26,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 113,43</t>
+          <t>-11,51; 211,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 239,58</t>
+          <t>-55,02; 82,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 217,4</t>
+          <t>-57,75; 268,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-73,35; 402,14</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-48,51; 292,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,34</t>
+          <t>27,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,39</t>
+          <t>20,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>13,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>186,54%</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>235,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>131,44%</t>
+          <t>174,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>101,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 36,41</t>
+          <t>11,72; 43,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 23,05</t>
+          <t>-23,02; 30,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 27,46</t>
+          <t>4,44; 36,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 26,92</t>
+          <t>-2,91; 27,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,18; 567,91</t>
+          <t>-38,38; 25,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 174,81</t>
+          <t>51,98; 965,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 284,29</t>
+          <t>-55,3; 360,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 432,08</t>
+          <t>22,11; 799,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,42; 485,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-53,6; 117,14</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,21</t>
+          <t>20,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,2</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>107,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>102,13%</t>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>102,64%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 26,58</t>
+          <t>6,39; 34,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 25,85</t>
+          <t>-4,68; 24,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 17,5</t>
+          <t>-7,2; 20,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 27,14</t>
+          <t>2,49; 30,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 177,39</t>
+          <t>-15,43; 15,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,33; 221,2</t>
+          <t>20,64; 345,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 135,86</t>
+          <t>-14,18; 147,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,98; 249,95</t>
+          <t>-25,62; 155,59</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 340,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-40,96; 83,88</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>15,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,31</t>
+          <t>14,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>12,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,93</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,42%</t>
+          <t>74,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>45,75%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37,83%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 25,6</t>
+          <t>3,21; 29,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 26,6</t>
+          <t>0,63; 27,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 26,2</t>
+          <t>-1,3; 24,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 28,84</t>
+          <t>-1,9; 26,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 154,53</t>
+          <t>-3,86; 22,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 155,48</t>
+          <t>8,31; 213,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 136,11</t>
+          <t>1,36; 146,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,81; 173,98</t>
+          <t>-4,12; 133,86</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 157,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 134,47</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>28,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>15,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>52,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>-19,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>140,81%</t>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>167,26%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>73,34%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 17,09</t>
+          <t>-5,35; 27,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 10,93</t>
+          <t>-26,73; 11,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 23,94</t>
+          <t>-14,92; 23,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,91; 36,48</t>
+          <t>11,24; 44,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 140,04</t>
+          <t>-1,87; 31,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,56; 45,79</t>
+          <t>-25,11; 202,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 96,51</t>
+          <t>-57,1; 44,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,35; 285,58</t>
+          <t>-35,63; 83,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46,95; 399,34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; 224,32</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>15,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,49</t>
+          <t>21,76</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>27,63</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>197,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>139,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>66,69%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>52,94%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>100,46%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 22,48</t>
+          <t>-0,55; 30,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 28,15</t>
+          <t>3,73; 40,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 20,47</t>
+          <t>-5,79; 33,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 19,55</t>
+          <t>-9,82; 30,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 262,51</t>
+          <t>5,6; 50,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,7; 247,09</t>
+          <t>-14,25; 1114,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 164,24</t>
+          <t>2,41; 529,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 133,35</t>
+          <t>-21,6; 266,65</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-31,65; 264,22</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 305,4</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,82</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,17</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,87</t>
+          <t>14,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>101,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>42,28%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>80,54%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,06; 20,96</t>
+          <t>11,77; 25,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 16,21</t>
+          <t>-0,82; 15,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,78</t>
+          <t>2,42; 16,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 20,21</t>
+          <t>7,32; 20,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,52; 128,52</t>
+          <t>-5,67; 17,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 84,09</t>
+          <t>53,71; 171,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,83; 89,08</t>
+          <t>-3,08; 66,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,66; 143,21</t>
+          <t>7,68; 83,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35,57; 146,47</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-15,32; 73,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
